--- a/biology/Zoologie/Cuivré_des_marais/Cuivré_des_marais.xlsx
+++ b/biology/Zoologie/Cuivré_des_marais/Cuivré_des_marais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cuivr%C3%A9_des_marais</t>
+          <t>Cuivré_des_marais</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lycaena dispar · Grand cuivré
 Le Cuivré des marais ou Grand cuivré (Lycaena dispar) est une espèce paléarctique de lépidoptères (papillons) de la famille des Lycaenidae et de la sous-famille des Lycaeninae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cuivr%C3%A9_des_marais</t>
+          <t>Cuivré_des_marais</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,16 +524,87 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce Lycaena dispar a été décrite par le naturaliste britannique Adrian Hardy Haworth en 1802, sous le nom initial de Papilio dispar.
-Synonymes[1],[2]
-Papilio dispar Haworth, 1802 — protonyme
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cuivré_des_marais</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cuivr%C3%A9_des_marais</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes[1],[2]</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Papilio dispar Haworth, 1802 — protonyme
 Thersamolycaena dispar Haworth, 1803
 Chrysophanus batavus Oberthür, 1923
-Papilio rutilus Werneburg, 1864
-Sous-espèces
-Selon Catalogue of Life                                   (12 septembre 2017)[3] :
+Papilio rutilus Werneburg, 1864</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cuivré_des_marais</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cuivr%C3%A9_des_marais</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (12 septembre 2017) :
 Lycaena dispar antinigrescens (Lempke, 1954)
 Lycaena dispar auratus (Leech, 1887)
 Lycaena dispar batavus (Oberthür, 1923)
@@ -551,67 +634,74 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Cuivr%C3%A9_des_marais</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cuivr%C3%A9_des_marais</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cuivré_des_marais</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cuivr%C3%A9_des_marais</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>en français : le Cuivré des marais, le Grand cuivré ; plus rarement le Grand argus satiné, l'Argus satiné à taches noires, le Lycène disparate, le Cuivré de la Parelle-d'eau[2]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>en français : le Cuivré des marais, le Grand cuivré ; plus rarement le Grand argus satiné, l'Argus satiné à taches noires, le Lycène disparate, le Cuivré de la Parelle-d'eau
 en anglais : Large Copper
 en allemand : Großer Feuerfalter
 en néerlandais : Grote vuurvlinder</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Cuivr%C3%A9_des_marais</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cuivr%C3%A9_des_marais</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cuivré_des_marais</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cuivr%C3%A9_des_marais</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Imago
-L'imago du Cuivré des marais est un petit papillon présentant des variations entre les sexes et entre les sous-espèces. Le dessus du mâle est cuivre avec une étroite bordure marron et à la partie postérieure des ailes postérieures une suffusion marron. Les ailes antérieures du dessus de la femelle sont cuivre avec une large bordure marron et ornées de grosses taches marron formant une ligne et les ailes postérieures sont marron avec une bande submarginale orange.
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Imago</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'imago du Cuivré des marais est un petit papillon présentant des variations entre les sexes et entre les sous-espèces. Le dessus du mâle est cuivre avec une étroite bordure marron et à la partie postérieure des ailes postérieures une suffusion marron. Les ailes antérieures du dessus de la femelle sont cuivre avec une large bordure marron et ornées de grosses taches marron formant une ligne et les ailes postérieures sont marron avec une bande submarginale orange.
 Le revers est aux antérieures d'un ton orange et aux postérieures d'un ton beige grisé, ornées de points noirs cernés de blanc et aux postérieures d'une ligne submarginale de taches orange ovales. Un appendice caudal en n2 peut être présent ou pas.
 Le revers de l'aile antérieure est orange plus ou moins clair suivant les sous-espèces, orné de points noirs cerclés de blanc et l'aile postérieure est grisée à bleutée avec une bande submarginale de points orange pouvant former une bande continue, et une ornementation de points noirs cerclés de blanc.
 			Lycaena dispar  ♂   MHNT
@@ -621,83 +711,272 @@
 			Femelle
 			Femelle
 			Mâle
-Espèces proches ou ressemblantes
-La femelle peut être confondue avec le mâle du Cuivré commun.
-Chenille et chrysalide
-Les œufs d'une couleur gris clair caractéristique, sont pondus sur, sous les feuilles ou sur les tiges des plantes hôtes. Leur incubation dure 5 à 16 jours[4]. La jeune chenille, petite et trapue, possède une tête rétractile marron et un corps de couleur vert vif couvert de points blancs avec une bande dorsale et des stries latérales vertes peu marquées. Au second stade elles sont de couleur rosâtre[5].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Cuivr%C3%A9_des_marais</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cuivr%C3%A9_des_marais</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cuivré_des_marais</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cuivr%C3%A9_des_marais</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Imago</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Espèces proches ou ressemblantes</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle peut être confondue avec le mâle du Cuivré commun.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cuivré_des_marais</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cuivr%C3%A9_des_marais</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Chenille et chrysalide</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les œufs d'une couleur gris clair caractéristique, sont pondus sur, sous les feuilles ou sur les tiges des plantes hôtes. Leur incubation dure 5 à 16 jours. La jeune chenille, petite et trapue, possède une tête rétractile marron et un corps de couleur vert vif couvert de points blancs avec une bande dorsale et des stries latérales vertes peu marquées. Au second stade elles sont de couleur rosâtre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cuivré_des_marais</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cuivr%C3%A9_des_marais</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Il vole en deux générations (espèce bivoltine), en mai-juin et juillet-août[6].
-Il hiverne en tant que chenille au second stade capable de résister à un long séjour dans l'eau[5].
-Plantes hôtes
-Ses plantes hôtes sont des Rumex ou oseilles sauvages : Rumex hydrolapathum, Rumex crispus, Rumex obtusifolius, Rumex conglomeratus et Rumex aquaticus[7].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Cuivr%C3%A9_des_marais</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cuivr%C3%A9_des_marais</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole en deux générations (espèce bivoltine), en mai-juin et juillet-août.
+Il hiverne en tant que chenille au second stade capable de résister à un long séjour dans l'eau.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cuivré_des_marais</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cuivr%C3%A9_des_marais</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses plantes hôtes sont des Rumex ou oseilles sauvages : Rumex hydrolapathum, Rumex crispus, Rumex obtusifolius, Rumex conglomeratus et Rumex aquaticus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Cuivré_des_marais</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cuivr%C3%A9_des_marais</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Distribution
-Le Cuivré des marais est présent en colonies dispersées dans une large aire s'étendant de l'Ouest de l'Europe jusqu'à la région du fleuve Amour en Extrême-Orient[1]. Il est en régression dans de nombreux pays, et éteint en Grande-Bretagne.
-En France métropolitaine, on peut le trouver dans une large bande allant approximativement du Nord-Est (Lycaena dispar rutila) au Sud-Ouest (Lycaena dispar burdigalensis) du pays[8],[9] ; l'espèce y est cependant localisée et peu abondante.
-Biotope
-C'est un lépidoptère des prairies humides et des marais.
-Protection
-Le Cuivré des marais est inscrit sur la liste des insectes strictement protégés de l'annexe 2 de la Convention de Berne, sur la liste des insectes strictement protégés de l'annexe II et de l'annexe IV de la Directive Habitats du Conseil de l'Europe concernant la conservation des habitats naturels ainsi que de la faune et de la flore sauvages du 21 mai 1992[10].
-En France le Cuivré des marais est inscrit sur la liste rouge des insectes de France métropolitaine (arrêté du 22 juillet 1993 fixant la liste des insectes protégés sur le territoire national)[11]. Il est aussi inscrit en Allemagne sur la liste rouge du Bade-Wurtemberg.
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Cuivré des marais est présent en colonies dispersées dans une large aire s'étendant de l'Ouest de l'Europe jusqu'à la région du fleuve Amour en Extrême-Orient. Il est en régression dans de nombreux pays, et éteint en Grande-Bretagne.
+En France métropolitaine, on peut le trouver dans une large bande allant approximativement du Nord-Est (Lycaena dispar rutila) au Sud-Ouest (Lycaena dispar burdigalensis) du pays, ; l'espèce y est cependant localisée et peu abondante.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Cuivré_des_marais</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cuivr%C3%A9_des_marais</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un lépidoptère des prairies humides et des marais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Cuivré_des_marais</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cuivr%C3%A9_des_marais</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Cuivré des marais est inscrit sur la liste des insectes strictement protégés de l'annexe 2 de la Convention de Berne, sur la liste des insectes strictement protégés de l'annexe II et de l'annexe IV de la Directive Habitats du Conseil de l'Europe concernant la conservation des habitats naturels ainsi que de la faune et de la flore sauvages du 21 mai 1992.
+En France le Cuivré des marais est inscrit sur la liste rouge des insectes de France métropolitaine (arrêté du 22 juillet 1993 fixant la liste des insectes protégés sur le territoire national). Il est aussi inscrit en Allemagne sur la liste rouge du Bade-Wurtemberg.
 Espèce protégée en France, le Cuivré des marais est en régression partout où disparaissent les zones humides.
 Le Cuivré des marais est éteint en Grande-Bretagne.
 </t>
